--- a/hardware/relay comparison.xlsx
+++ b/hardware/relay comparison.xlsx
@@ -1,29 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabfa\Nextcloud2\Bastel Projekte\Feudal Tech\Offizielles\Trebuchet official\hardware\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7D8A6A-C20B-4583-8994-E1F53ECBB8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name </t>
+  </si>
+  <si>
+    <t>https://www.eltako.com/en/catalog/products/98/r12-100-24v/</t>
+  </si>
+  <si>
+    <t>R12-100-24V</t>
+  </si>
+  <si>
+    <t>Eltako</t>
+  </si>
+  <si>
+    <t>~20€</t>
+  </si>
+  <si>
+    <t>~12€</t>
+  </si>
+  <si>
+    <t>https://www.zaehlerschrank24.de/f-f-relais-elektromagnetisch-24v-ac-dc-16a-pk-1p24v.html</t>
+  </si>
+  <si>
+    <t>F&amp;F</t>
+  </si>
+  <si>
+    <t>PK-1P-24V</t>
+  </si>
+  <si>
+    <t>stated consumption [W]</t>
+  </si>
+  <si>
+    <t>real consumption [W]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,14 +118,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +405,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1.9</v>
+      </c>
+      <c r="F2">
+        <f>24*0.089</f>
+        <v>2.1360000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <f>24*0.025</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F3">
+        <f>24*0.02</f>
+        <v>0.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{E961D187-B519-426C-8DA4-4D9D6EC616B0}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{77BD9EC9-0555-4008-AB44-CBA83FE69C9B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>